--- a/execution-substratrates/xlsx/rulebook.xlsx
+++ b/execution-substratrates/xlsx/rulebook.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>To avoid the slogan 'Everything is a language', treat 'language' as a typed construct defined by testable properties (syntax, parsing, serialized meaning, and descriptor-role).</t>
+          <t>To avoid the slogan 'Everything is a language', treat 'language' as a typed construct defined by testable properties (syntax, parsing, linear decoding pressure, and descriptor-role).</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr"/>
@@ -589,7 +589,7 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>Use the repo predicates: HasSyntax, RequiresParsing, Meaning_Is_Serialized, IsOntologyDescriptor (spelled IsOngologyDescriptor in the dataset), plus auxiliary checks like CanBeHeld and HasIdentity.</t>
+          <t>Use the repo predicates: HasSyntax, RequiresParsing, HasLinearDecodingPressure, StableOntologyReference (spelled IsOngologyDescriptor in the dataset), plus auxiliary checks like CanBeHeld and HasIdentity.</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>Language(x) := HasSyntax(x) ∧ RequiresParsing(x) ∧ Meaning_Is_Serialized(x) ∧ IsOngologyDescriptor(x)</t>
+          <t>Language(x) := HasSyntax(x) ∧ RequiresParsing(x) ∧ HasLinearDecodingPressure(x) ∧ StableOntologyReference(x)</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr"/>
@@ -699,7 +699,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>HasSyntax=True; RequiresParsing=True; Meaning_Is_Serialized=True; IsOngologyDescriptor=True; CanBeHeld=False; HasIdentity=False; DistanceFromConcept=2; Category=Natural Language</t>
+          <t>HasSyntax=True; RequiresParsing=True; HasLinearDecodingPressure=True; IsOngologyDescriptor=True; CanBeHeld=False; HasIdentity=False; DistanceFromConcept=2; Category=Natural Language</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>HasSyntax=True; RequiresParsing=True; Meaning_Is_Serialized=True; IsOngologyDescriptor=True; CanBeHeld=False; HasIdentity=False; DistanceFromConcept=2; Category=Formal Language</t>
+          <t>HasSyntax=True; RequiresParsing=True; HasLinearDecodingPressure=True; IsOngologyDescriptor=True; CanBeHeld=False; HasIdentity=False; DistanceFromConcept=2; Category=Formal Language</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>∀x (¬(HasSyntax(x) ∧ RequiresParsing(x) ∧ Meaning_Is_Serialized(x) ∧ IsOngologyDescriptor(x)) → ¬Language(x))</t>
+          <t>∀x (¬(HasSyntax(x) ∧ RequiresParsing(x) ∧ HasLinearDecodingPressure(x) ∧ StableOntologyReference(x)) → ¬Language(x))</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr"/>
@@ -952,7 +952,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>HasSyntax=False; RequiresParsing=True; Meaning_Is_Serialized=False; IsOngologyDescriptor=False; CanBeHeld=False; HasIdentity=True; DistanceFromConcept=1; Category=Physical event</t>
+          <t>HasSyntax=False; RequiresParsing=True; HasLinearDecodingPressure=False; IsOngologyDescriptor=False; CanBeHeld=False; HasIdentity=True; DistanceFromConcept=1; Category=Physical event</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>HasSyntax=False; RequiresParsing=False; Meaning_Is_Serialized=False; IsOngologyDescriptor=False; CanBeHeld=True; HasIdentity=True; DistanceFromConcept=1; Category=Physical Object</t>
+          <t>HasSyntax=False; RequiresParsing=False; HasLinearDecodingPressure=False; IsOngologyDescriptor=False; CanBeHeld=True; HasIdentity=True; DistanceFromConcept=1; Category=Physical Object</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>HasSyntax=False; RequiresParsing=False; Meaning_Is_Serialized=False; IsOngologyDescriptor=True; CanBeHeld=True; HasIdentity=True; DistanceFromConcept=1; Category=Physical Object</t>
+          <t>HasSyntax=False; RequiresParsing=False; HasLinearDecodingPressure=False; IsOngologyDescriptor=True; CanBeHeld=True; HasIdentity=True; DistanceFromConcept=1; Category=Physical Object</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>HasSyntax=False; RequiresParsing=True; Meaning_Is_Serialized=False; IsOngologyDescriptor=False; CanBeHeld=False; HasIdentity=True; DistanceFromConcept=1; Category=Running Software</t>
+          <t>HasSyntax=False; RequiresParsing=True; HasLinearDecodingPressure=False; IsOngologyDescriptor=False; CanBeHeld=False; HasIdentity=True; DistanceFromConcept=1; Category=Running Software</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>HasSyntax=False; RequiresParsing=True; Meaning_Is_Serialized=False; IsOngologyDescriptor=False; CanBeHeld=False; HasIdentity=True; DistanceFromConcept=1; Category=Running Software</t>
+          <t>HasSyntax=False; RequiresParsing=True; HasLinearDecodingPressure=False; IsOngologyDescriptor=False; CanBeHeld=False; HasIdentity=True; DistanceFromConcept=1; Category=Running Software</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1360,15 +1360,16 @@
     <col width="12" customWidth="1" min="10" max="10"/>
     <col width="12" customWidth="1" min="11" max="11"/>
     <col width="17" customWidth="1" min="12" max="12"/>
-    <col width="21" customWidth="1" min="13" max="13"/>
-    <col width="22" customWidth="1" min="14" max="14"/>
+    <col width="27" customWidth="1" min="13" max="13"/>
+    <col width="27" customWidth="1" min="14" max="14"/>
     <col width="28" customWidth="1" min="15" max="15"/>
-    <col width="29" customWidth="1" min="16" max="16"/>
-    <col width="13" customWidth="1" min="17" max="17"/>
-    <col width="15" customWidth="1" min="18" max="18"/>
+    <col width="13" customWidth="1" min="16" max="16"/>
+    <col width="15" customWidth="1" min="17" max="17"/>
+    <col width="29" customWidth="1" min="18" max="18"/>
     <col width="21" customWidth="1" min="19" max="19"/>
-    <col width="23" customWidth="1" min="20" max="20"/>
-    <col width="12" customWidth="1" min="21" max="21"/>
+    <col width="17" customWidth="1" min="20" max="20"/>
+    <col width="23" customWidth="1" min="21" max="21"/>
+    <col width="12" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1434,12 +1435,12 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>MeaningIsSerialized</t>
+          <t>HasLinearDecodingPressure</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>IsOngologyDescriptor</t>
+          <t>IsStableOntologyReference</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1449,19 +1450,19 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>IsOpenWorld</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>IsClosedWorld</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>IsOpenClosedWorldConflicted</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>IsOpenWorld</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>IsClosedWorld</t>
-        </is>
-      </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
           <t>DistanceFromConcept</t>
@@ -1469,10 +1470,15 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>IsDescriptionOf</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>RelationshipToConcept</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>SortOrder</t>
         </is>
@@ -1531,25 +1537,30 @@
       <c r="N2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="3" t="b">
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="b">
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="R2" s="2" t="b">
+      <c r="R2" s="3" t="b">
         <v>0</v>
       </c>
       <c r="S2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="T2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="n"/>
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>IsDescriptionOf</t>
         </is>
       </c>
-      <c r="U2" s="2" t="n">
+      <c r="V2" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1606,25 +1617,30 @@
       <c r="N3" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="3" t="b">
+      <c r="O3" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P3" s="2" t="b">
         <v>0</v>
       </c>
       <c r="Q3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="R3" s="2" t="b">
+      <c r="R3" s="3" t="b">
         <v>0</v>
       </c>
       <c r="S3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="T3" s="3" t="inlineStr">
+      <c r="T3" s="3" t="n"/>
+      <c r="U3" s="3" t="inlineStr">
         <is>
           <t>IsMirrorOf</t>
         </is>
       </c>
-      <c r="U3" s="2" t="n">
+      <c r="V3" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1686,24 +1702,25 @@
           <t>OneDimensionalSymbolic</t>
         </is>
       </c>
-      <c r="P4" s="3" t="b">
+      <c r="P4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="Q4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="R4" s="2" t="b">
+      <c r="R4" s="3" t="b">
         <v>1</v>
       </c>
       <c r="S4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="T4" s="3" t="inlineStr">
+      <c r="T4" s="3" t="n"/>
+      <c r="U4" s="3" t="inlineStr">
         <is>
           <t>IsDescriptionOf</t>
         </is>
       </c>
-      <c r="U4" s="2" t="n">
+      <c r="V4" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1761,24 +1778,25 @@
           <t>OneDimensionalSymbolic</t>
         </is>
       </c>
-      <c r="P5" s="3" t="b">
-        <v>0</v>
+      <c r="P5" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="Q5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3" t="b">
         <v>0</v>
       </c>
       <c r="S5" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="T5" s="3" t="inlineStr">
+      <c r="T5" s="3" t="n"/>
+      <c r="U5" s="3" t="inlineStr">
         <is>
           <t>IsDescriptionOf</t>
         </is>
       </c>
-      <c r="U5" s="2" t="n">
+      <c r="V5" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1836,24 +1854,25 @@
           <t>OneDimensionalSymbolic</t>
         </is>
       </c>
-      <c r="P6" s="3" t="b">
-        <v>0</v>
+      <c r="P6" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="Q6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="R6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3" t="b">
         <v>0</v>
       </c>
       <c r="S6" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="T6" s="3" t="inlineStr">
+      <c r="T6" s="3" t="n"/>
+      <c r="U6" s="3" t="inlineStr">
         <is>
           <t>IsDescriptionOf</t>
         </is>
       </c>
-      <c r="U6" s="2" t="n">
+      <c r="V6" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1908,27 +1927,28 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>MultiDimensionalNonSymbolic</t>
-        </is>
-      </c>
-      <c r="P7" s="3" t="b">
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="b">
         <v>0</v>
       </c>
       <c r="Q7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="R7" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="S7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="T7" s="3" t="inlineStr">
+      <c r="T7" s="3" t="n"/>
+      <c r="U7" s="3" t="inlineStr">
         <is>
           <t>IsMirrorOf</t>
         </is>
       </c>
-      <c r="U7" s="2" t="n">
+      <c r="V7" s="2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1986,24 +2006,25 @@
           <t>MultiDimensionalNonSymbolic</t>
         </is>
       </c>
-      <c r="P8" s="3" t="b">
+      <c r="P8" s="2" t="b">
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="R8" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="S8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="T8" s="3" t="inlineStr">
+      <c r="T8" s="3" t="n"/>
+      <c r="U8" s="3" t="inlineStr">
         <is>
           <t>IsMirrorOf</t>
         </is>
       </c>
-      <c r="U8" s="2" t="n">
+      <c r="V8" s="2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2058,27 +2079,28 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>MultiDimensionalNonSymbolic</t>
-        </is>
-      </c>
-      <c r="P9" s="3" t="b">
-        <v>0</v>
+          <t>OneDimensionalSymbolic</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="Q9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="b">
         <v>0</v>
       </c>
       <c r="S9" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="T9" s="3" t="inlineStr">
+      <c r="T9" s="3" t="n"/>
+      <c r="U9" s="3" t="inlineStr">
         <is>
           <t>IsDescriptionOf</t>
         </is>
       </c>
-      <c r="U9" s="2" t="n">
+      <c r="V9" s="2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2136,24 +2158,25 @@
           <t>OneDimensionalSymbolic</t>
         </is>
       </c>
-      <c r="P10" s="3" t="b">
-        <v>0</v>
+      <c r="P10" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="Q10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3" t="b">
         <v>0</v>
       </c>
       <c r="S10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="T10" s="3" t="inlineStr">
+      <c r="T10" s="3" t="n"/>
+      <c r="U10" s="3" t="inlineStr">
         <is>
           <t>IsDescriptionOf</t>
         </is>
       </c>
-      <c r="U10" s="2" t="n">
+      <c r="V10" s="2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2208,27 +2231,28 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>MultiDimensionalNonSymbolic</t>
-        </is>
-      </c>
-      <c r="P11" s="3" t="b">
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="b">
         <v>0</v>
       </c>
       <c r="Q11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="R11" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="S11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="T11" s="3" t="inlineStr">
+      <c r="T11" s="3" t="n"/>
+      <c r="U11" s="3" t="inlineStr">
         <is>
           <t>IsMirrorOf</t>
         </is>
       </c>
-      <c r="U11" s="2" t="n">
+      <c r="V11" s="2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2286,24 +2310,25 @@
           <t>MultiDimensionalNonSymbolic</t>
         </is>
       </c>
-      <c r="P12" s="3" t="b">
+      <c r="P12" s="2" t="b">
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="R12" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="S12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="T12" s="3" t="inlineStr">
+      <c r="T12" s="3" t="n"/>
+      <c r="U12" s="3" t="inlineStr">
         <is>
           <t>IsMirrorOf</t>
         </is>
       </c>
-      <c r="U12" s="2" t="n">
+      <c r="V12" s="2" t="n">
         <v>22</v>
       </c>
     </row>
@@ -2356,25 +2381,30 @@
       <c r="N13" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="3" t="b">
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>OneDimensionalSymbolic</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="b">
         <v>0</v>
       </c>
       <c r="Q13" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="R13" s="2" t="b">
+      <c r="R13" s="3" t="b">
         <v>0</v>
       </c>
       <c r="S13" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="T13" s="3" t="inlineStr">
+      <c r="T13" s="3" t="n"/>
+      <c r="U13" s="3" t="inlineStr">
         <is>
           <t>IsDescriptionOf</t>
         </is>
       </c>
-      <c r="U13" s="2" t="n">
+      <c r="V13" s="2" t="n">
         <v>23</v>
       </c>
     </row>
@@ -2427,25 +2457,30 @@
       <c r="N14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="O14" s="2" t="inlineStr"/>
-      <c r="P14" s="3" t="b">
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>MultiDimensionalNonSymbolic</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="b">
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="R14" s="2" t="b">
+      <c r="R14" s="3" t="b">
         <v>0</v>
       </c>
       <c r="S14" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="T14" s="3" t="inlineStr">
+      <c r="T14" s="3" t="n"/>
+      <c r="U14" s="3" t="inlineStr">
         <is>
           <t>IsMirrorOf</t>
         </is>
       </c>
-      <c r="U14" s="2" t="n">
+      <c r="V14" s="2" t="n">
         <v>24</v>
       </c>
     </row>
@@ -2498,25 +2533,30 @@
       <c r="N15" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="3" t="b">
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>OneDimensionalSymbolic</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="b">
         <v>0</v>
       </c>
       <c r="Q15" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="R15" s="2" t="b">
+      <c r="R15" s="3" t="b">
         <v>0</v>
       </c>
       <c r="S15" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="T15" s="3" t="inlineStr">
+      <c r="T15" s="3" t="n"/>
+      <c r="U15" s="3" t="inlineStr">
         <is>
           <t>IsDescriptionOf</t>
         </is>
       </c>
-      <c r="U15" s="2" t="n">
+      <c r="V15" s="2" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2569,25 +2609,30 @@
       <c r="N16" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O16" s="2" t="inlineStr"/>
-      <c r="P16" s="3" t="b">
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>MultiDimensionalNonSymbolic</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="b">
         <v>0</v>
       </c>
       <c r="Q16" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="R16" s="2" t="b">
+      <c r="R16" s="3" t="b">
         <v>0</v>
       </c>
       <c r="S16" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="T16" s="3" t="inlineStr">
+      <c r="T16" s="3" t="n"/>
+      <c r="U16" s="3" t="inlineStr">
         <is>
           <t>IsMirrorOf</t>
         </is>
       </c>
-      <c r="U16" s="2" t="n">
+      <c r="V16" s="2" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2645,24 +2690,25 @@
           <t>OneDimensionalSymbolic</t>
         </is>
       </c>
-      <c r="P17" s="3" t="b">
-        <v>0</v>
+      <c r="P17" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="Q17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3" t="b">
         <v>0</v>
       </c>
       <c r="S17" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="T17" s="3" t="inlineStr">
+      <c r="T17" s="3" t="n"/>
+      <c r="U17" s="3" t="inlineStr">
         <is>
           <t>IsDescriptionOf</t>
         </is>
       </c>
-      <c r="U17" s="2" t="n">
+      <c r="V17" s="2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2720,24 +2766,25 @@
           <t>OneDimensionalSymbolic</t>
         </is>
       </c>
-      <c r="P18" s="3" t="b">
+      <c r="P18" s="2" t="b">
         <v>0</v>
       </c>
       <c r="Q18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R18" s="2" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="R18" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="S18" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="T18" s="3" t="inlineStr">
+      <c r="T18" s="3" t="n"/>
+      <c r="U18" s="3" t="inlineStr">
         <is>
           <t>IsDescriptionOf</t>
         </is>
       </c>
-      <c r="U18" s="2" t="n">
+      <c r="V18" s="2" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2790,25 +2837,30 @@
       <c r="N19" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="O19" s="2" t="inlineStr"/>
-      <c r="P19" s="3" t="b">
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="b">
         <v>0</v>
       </c>
       <c r="Q19" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="R19" s="2" t="b">
+      <c r="R19" s="3" t="b">
         <v>0</v>
       </c>
       <c r="S19" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="T19" s="3" t="inlineStr">
+      <c r="T19" s="3" t="n"/>
+      <c r="U19" s="3" t="inlineStr">
         <is>
           <t>IsMirrorOf</t>
         </is>
       </c>
-      <c r="U19" s="2" t="n">
+      <c r="V19" s="2" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2861,25 +2913,30 @@
       <c r="N20" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="3" t="b">
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="b">
         <v>0</v>
       </c>
       <c r="Q20" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="R20" s="2" t="b">
+      <c r="R20" s="3" t="b">
         <v>0</v>
       </c>
       <c r="S20" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="T20" s="3" t="inlineStr">
+      <c r="T20" s="3" t="n"/>
+      <c r="U20" s="3" t="inlineStr">
         <is>
           <t>IsMirrorOf</t>
         </is>
       </c>
-      <c r="U20" s="2" t="n">
+      <c r="V20" s="2" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2932,25 +2989,30 @@
       <c r="N21" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O21" s="2" t="inlineStr"/>
-      <c r="P21" s="3" t="b">
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>OneDimensionalSymbolic</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="b">
         <v>0</v>
       </c>
       <c r="Q21" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="R21" s="2" t="b">
+      <c r="R21" s="3" t="b">
         <v>0</v>
       </c>
       <c r="S21" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="T21" s="3" t="inlineStr">
+      <c r="T21" s="3" t="n"/>
+      <c r="U21" s="3" t="inlineStr">
         <is>
           <t>IsDescriptionOf</t>
         </is>
       </c>
-      <c r="U21" s="2" t="n">
+      <c r="V21" s="2" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3003,25 +3065,30 @@
       <c r="N22" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O22" s="2" t="inlineStr"/>
-      <c r="P22" s="3" t="b">
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>OneDimensionalSymbolic</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="b">
         <v>0</v>
       </c>
       <c r="Q22" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="R22" s="2" t="b">
+      <c r="R22" s="3" t="b">
         <v>0</v>
       </c>
       <c r="S22" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="T22" s="3" t="inlineStr">
+      <c r="T22" s="3" t="n"/>
+      <c r="U22" s="3" t="inlineStr">
         <is>
           <t>IsDescriptionOf</t>
         </is>
       </c>
-      <c r="U22" s="2" t="n">
+      <c r="V22" s="2" t="n">
         <v>15</v>
       </c>
     </row>
@@ -3074,25 +3141,30 @@
       <c r="N23" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O23" s="2" t="inlineStr"/>
-      <c r="P23" s="3" t="b">
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="b">
         <v>0</v>
       </c>
       <c r="Q23" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="R23" s="2" t="b">
+      <c r="R23" s="3" t="b">
         <v>0</v>
       </c>
       <c r="S23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="T23" s="3" t="inlineStr">
+      <c r="T23" s="3" t="n"/>
+      <c r="U23" s="3" t="inlineStr">
         <is>
           <t>IsMirrorOf</t>
         </is>
       </c>
-      <c r="U23" s="2" t="n">
+      <c r="V23" s="2" t="n">
         <v>16</v>
       </c>
     </row>
@@ -3145,25 +3217,30 @@
       <c r="N24" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="O24" s="2" t="inlineStr"/>
-      <c r="P24" s="3" t="b">
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>MultiDimensionalNonSymbolic</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="b">
         <v>0</v>
       </c>
       <c r="Q24" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="R24" s="2" t="b">
+      <c r="R24" s="3" t="b">
         <v>0</v>
       </c>
       <c r="S24" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="T24" s="3" t="inlineStr">
+      <c r="T24" s="3" t="n"/>
+      <c r="U24" s="3" t="inlineStr">
         <is>
           <t>IsMirrorOf</t>
         </is>
       </c>
-      <c r="U24" s="2" t="n">
+      <c r="V24" s="2" t="n">
         <v>17</v>
       </c>
     </row>
@@ -3216,25 +3293,30 @@
       <c r="N25" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O25" s="2" t="inlineStr"/>
-      <c r="P25" s="3" t="b">
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>OneDimensionalSymbolic</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="b">
         <v>0</v>
       </c>
       <c r="Q25" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="R25" s="2" t="b">
+      <c r="R25" s="3" t="b">
         <v>0</v>
       </c>
       <c r="S25" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="T25" s="3" t="inlineStr">
+      <c r="T25" s="3" t="n"/>
+      <c r="U25" s="3" t="inlineStr">
         <is>
           <t>IsDescriptionOf</t>
         </is>
       </c>
-      <c r="U25" s="2" t="n">
+      <c r="V25" s="2" t="n">
         <v>18</v>
       </c>
     </row>
@@ -3287,25 +3369,30 @@
       <c r="N26" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O26" s="2" t="inlineStr"/>
-      <c r="P26" s="3" t="b">
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>OneDimensionalSymbolic</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="b">
         <v>0</v>
       </c>
       <c r="Q26" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="R26" s="2" t="b">
+      <c r="R26" s="3" t="b">
         <v>0</v>
       </c>
       <c r="S26" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="T26" s="3" t="inlineStr">
+      <c r="T26" s="3" t="n"/>
+      <c r="U26" s="3" t="inlineStr">
         <is>
           <t>IsDescriptionOf</t>
         </is>
       </c>
-      <c r="U26" s="2" t="n">
+      <c r="V26" s="2" t="n">
         <v>19</v>
       </c>
     </row>
